--- a/biology/Médecine/The_Jane_Doe_Identity/The_Jane_Doe_Identity.xlsx
+++ b/biology/Médecine/The_Jane_Doe_Identity/The_Jane_Doe_Identity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Jane Doe Identity (The Autopsy of Jane Doe) est un film d'horreur américain réalisé par André Øvredal, sorti en 2016.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tommy Tilden et son fils Austin sont médecins-légistes dans la morgue locale d'une petite ville. Un soir, le sheriff leur amène le cadavre d'une jeune femme à l'identité inconnue, surnommée « Jane Doe ». Ils décident de mener leur enquête pour connaître son histoire et la raison de sa mort.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Autopsy of Jane Doe
 Titre français : The Jane Doe Identity
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Emile Hirsch (VFB : Maxime Donnay) : Austin Tilden
@@ -634,10 +652,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réalisateur André Øvredal cite Conjuring : Les Dossiers Warren comme sa principale inspiration pour mettre en scène un film d'horreur classique, un retour aux sources bienvenu. Le scénario du film figurait sur The Black List d'Hollywood[1].
-Martin Sheen devait incarner le père médecin-légiste, finalement remplacé par Brian Cox[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réalisateur André Øvredal cite Conjuring : Les Dossiers Warren comme sa principale inspiration pour mettre en scène un film d'horreur classique, un retour aux sources bienvenu. Le scénario du film figurait sur The Black List d'Hollywood.
+Martin Sheen devait incarner le père médecin-légiste, finalement remplacé par Brian Cox.
 </t>
         </is>
       </c>
@@ -668,10 +688,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box-office
-Le film a rapporté 6 156 500 de dollars au box-office mondial[3]. En France, il a réalisé 189 323 entrées[4].
-Critique
-Le film reçoit un accueil globalement favorable, recueillant 86 % de critiques positives, avec une note moyenne de 6,8/10 et sur la base de 94 critiques collectées, sur le site internet Rotten Tomatoes[5]. Sur Metacritic, il obtient un score de 65/100 sur la base de 20 critiques collectées[6].
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a rapporté 6 156 500 de dollars au box-office mondial. En France, il a réalisé 189 323 entrées.
 </t>
         </is>
       </c>
@@ -697,17 +720,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récompenses
-Austin Fantastic Fest 2016 : prix du meilleur film
-Festival international du film de Catalogne 2016 : prix spécial du jury
-Nominations
-Saturn Award du meilleur film d'horreur 2017
-Empire Award du meilleur film d'horreur 2018</t>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit un accueil globalement favorable, recueillant 86 % de critiques positives, avec une note moyenne de 6,8/10 et sur la base de 94 critiques collectées, sur le site internet Rotten Tomatoes. Sur Metacritic, il obtient un score de 65/100 sur la base de 20 critiques collectées.
+</t>
         </is>
       </c>
     </row>
@@ -732,12 +757,88 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Austin Fantastic Fest 2016 : prix du meilleur film
+Festival international du film de Catalogne 2016 : prix spécial du jury</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Jane_Doe_Identity</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Jane_Doe_Identity</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Saturn Award du meilleur film d'horreur 2017
+Empire Award du meilleur film d'horreur 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Jane_Doe_Identity</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Jane_Doe_Identity</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Sorties</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une l'édition spéciale canadienne en Blu-ray de The Jane Doe Identity contient comme bonus le court métrage primé Tunnelen du même réalisateur[7].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une l'édition spéciale canadienne en Blu-ray de The Jane Doe Identity contient comme bonus le court métrage primé Tunnelen du même réalisateur.
 </t>
         </is>
       </c>
